--- a/Attachment/BD_Perguntas_Estagiarios.xlsx
+++ b/Attachment/BD_Perguntas_Estagiarios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisadrummond/Documents/EFA_PROGRAMACAO/PCT/Markdown/Attachment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisadrummond/Documents/GitHub/Markdown_Devscope/Attachment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21A4CD76-ECD1-504E-B0B6-EEE5E32E0372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD20119-8D04-E340-8F0E-488C442EA1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F1D4573D-DE30-9941-AABE-9ED22CF5B2A6}"/>
+    <workbookView xWindow="160" yWindow="660" windowWidth="28500" windowHeight="17180" xr2:uid="{F1D4573D-DE30-9941-AABE-9ED22CF5B2A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Perguntas_Estagiarios" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="78">
   <si>
     <t>ID</t>
   </si>
@@ -57,12 +57,6 @@
     <t>Quantas tarefas conseguiu concluir hoje?</t>
   </si>
   <si>
-    <t>tempo_estimado, tempo_real</t>
-  </si>
-  <si>
-    <t>O tempo que estimou para concluir as tarefas foi suficiente? Se não, quanto mais tempo foi necessário?</t>
-  </si>
-  <si>
     <t>complexidade_tarefas</t>
   </si>
   <si>
@@ -96,9 +90,6 @@
     <t>Tipo</t>
   </si>
   <si>
-    <t>Boolean, float</t>
-  </si>
-  <si>
     <t>Opção</t>
   </si>
   <si>
@@ -240,22 +231,46 @@
     <t>Campo NÃO obrigatório</t>
   </si>
   <si>
-    <t>nome_estagiario</t>
-  </si>
-  <si>
-    <t>Nome:</t>
-  </si>
-  <si>
-    <t>departamento_estagiario</t>
-  </si>
-  <si>
-    <t>Departamento:</t>
-  </si>
-  <si>
     <t>Variável</t>
   </si>
   <si>
     <t>Escala de Likert (1 = Muito desconfortável, 5 = Muito confortável)</t>
+  </si>
+  <si>
+    <t>RespostaTarefa (numerica)</t>
+  </si>
+  <si>
+    <t>Resposta Boolean</t>
+  </si>
+  <si>
+    <t>Resposta Likert</t>
+  </si>
+  <si>
+    <t>Resposta Checkbox (inteiro)</t>
+  </si>
+  <si>
+    <t>Resposta Tempo (numerica)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resposta texto </t>
+  </si>
+  <si>
+    <t>tipo_interropcao</t>
+  </si>
+  <si>
+    <t>Qual interrupção?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O tempo que estimou para concluir as tarefas foi suficiente? </t>
+  </si>
+  <si>
+    <t>Se não, quanto mais tempo foi necessário?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tempo_estimado, </t>
+  </si>
+  <si>
+    <t>tempo_real</t>
   </si>
 </sst>
 </file>
@@ -291,7 +306,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -299,11 +314,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -323,6 +353,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -658,329 +700,429 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923AD30C-139B-AE45-B9D9-7F28006198F5}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="40.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="66.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="35" style="2" customWidth="1"/>
-    <col min="6" max="7" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="35" style="2" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="40" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" ht="20" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="E5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" ht="20" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="D6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="3">
         <v>5</v>
       </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" ht="40" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="40" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" ht="40" x14ac:dyDescent="0.25">
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="40" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="20" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="20" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="40" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="20" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="20" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" ht="40" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="40" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="3">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="C15" s="3">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="20" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" ht="20" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="20" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" ht="40" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="40" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
+      </c>
+      <c r="C18" s="3">
+        <v>4</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="40" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="40" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="22" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="D23" s="8">
+        <v>2</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="D24" s="10">
+        <v>3</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="D25" s="8">
+        <v>4</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="D26" s="8">
+        <v>5</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="20" x14ac:dyDescent="0.25">
+      <c r="D27" s="11">
+        <v>6</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1008,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="40" x14ac:dyDescent="0.2">
@@ -1025,16 +1167,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="40" x14ac:dyDescent="0.2">
@@ -1042,13 +1184,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E3" s="6"/>
     </row>
@@ -1057,16 +1199,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="40" x14ac:dyDescent="0.2">
@@ -1074,16 +1216,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="40" x14ac:dyDescent="0.2">
@@ -1091,16 +1233,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" x14ac:dyDescent="0.2">
@@ -1108,16 +1250,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
